--- a/old_image/nutritionorder.xlsx
+++ b/old_image/nutritionorder.xlsx
@@ -431,7 +431,7 @@
     <t>NutritionOrder.status</t>
   </si>
   <si>
-    <t>proposed | draft | planned | requested | active | on-hold | completed | cancelled | entered-in-error</t>
+    <t>draft | active | on-hold | revoked | completed | entered-in-error | unknown</t>
   </si>
   <si>
     <t>The workflow status of the nutrition order/request.</t>
@@ -468,7 +468,7 @@
 </t>
   </si>
   <si>
-    <t>proposal | plan | order</t>
+    <t>proposal | plan | directive | order | original-order | reflex-order | filler-order | instance-order | option</t>
   </si>
   <si>
     <t>Indicates the level of authority/intentionality associated with the NutrionOrder and where the request fits into the workflow chain.</t>
@@ -1391,7 +1391,7 @@
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="91.34375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="93.171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
